--- a/src/main/resources/bitcoin-config/Calculatons.xlsx
+++ b/src/main/resources/bitcoin-config/Calculatons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\4. Software\cnsim\src\main\resources\bitcoin-config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A69E82-9166-4167-91D6-A927D0F0081B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A94478E-244E-4F1C-893B-F1D8E5D1CCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{71A0909E-9532-41F6-8675-9097787CFB19}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Block Size</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>Arrivals/Hour</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Total Transactions</t>
   </si>
 </sst>
 </file>
@@ -455,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B152CA-4FC5-476F-8120-D159D27894EB}">
-  <dimension ref="D3:I10"/>
+  <dimension ref="D3:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +475,7 @@
     <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>0</v>
       </c>
@@ -489,7 +495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D4" s="1">
         <v>1000000</v>
       </c>
@@ -513,7 +519,7 @@
         <v>53333.333333333328</v>
       </c>
     </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D5" s="1">
         <v>250000</v>
       </c>
@@ -537,14 +543,14 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D6" s="1"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
       <c r="E7" t="s">
         <v>7</v>
@@ -558,9 +564,14 @@
       <c r="H7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="I7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>6</v>
       </c>
@@ -578,8 +589,15 @@
         <f>E8*3600</f>
         <v>23378.399999999998</v>
       </c>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <f>H8*I8</f>
+        <v>23378.399999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>6</v>
       </c>
@@ -598,8 +616,15 @@
         <f>E9*3600</f>
         <v>3600</v>
       </c>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J9:J10" si="4">H9*I9</f>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>6</v>
       </c>
@@ -617,6 +642,13 @@
       <c r="H10">
         <f>E10*3600</f>
         <v>1080</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>5400</v>
       </c>
     </row>
   </sheetData>
